--- a/Home_Assignments_Day2.xlsx
+++ b/Home_Assignments_Day2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WELCOME\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EDEC3E-AD14-4C7E-95FE-6BAAC1F0E8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A5FBD7-7BC2-4990-B65F-AA3041C7548E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{6A8965F4-2EC7-4F04-8468-49875C048D91}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>Service Provider</t>
   </si>
@@ -193,6 +193,24 @@
   </si>
   <si>
     <t xml:space="preserve">$0.56/M </t>
+  </si>
+  <si>
+    <t>Use the tokenizer to calculate the tokens for different prompts (with space ,with special characters without space etc)</t>
+  </si>
+  <si>
+    <t>https://platform.openai.com/tokenizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Openrouter ai --Extract the values of </t>
+  </si>
+  <si>
+    <t>1)Context window</t>
+  </si>
+  <si>
+    <t>2)Input tokens(with price)</t>
+  </si>
+  <si>
+    <t>3)Output token (with price)</t>
   </si>
 </sst>
 </file>
@@ -1035,14 +1053,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DC8196-5B60-430E-91B9-ADA7E2A1CB3F}">
-  <dimension ref="A1"/>
+  <dimension ref="C2:C3"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1050,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073424BF-DC07-40A6-97D1-172566FC7986}">
-  <dimension ref="A3:D15"/>
+  <dimension ref="A2:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,177 +1093,197 @@
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="10">
-        <v>131072</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="12">
-        <v>400000</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="12">
-        <v>1000000</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="10">
+        <v>131072</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="12">
-        <v>200000</v>
+        <v>24</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="12">
+        <v>400000</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B10" s="12">
-        <v>1048576</v>
+        <v>1000000</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B11" s="12">
-        <v>1048576</v>
+        <v>200000</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="12">
-        <v>1048576</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1048576</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1048576</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1048576</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B17" s="12">
         <v>262144</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
